--- a/KnToolsJp1Ajs/Data/jp1def-test03.xlsx
+++ b/KnToolsJp1Ajs/Data/jp1def-test03.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="288">
   <si>
     <t xml:space="preserve">Index</t>
   </si>
@@ -134,6 +134,12 @@
     <t xml:space="preserve">y</t>
   </si>
   <si>
+    <t xml:space="preserve">+00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1.d)</t>
+  </si>
+  <si>
     <t xml:space="preserve">/testAJS3</t>
   </si>
   <si>
@@ -188,6 +194,12 @@
     <t xml:space="preserve">Strategyebl21(+)(17:00)</t>
   </si>
   <si>
+    <t xml:space="preserve">17:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1,d)</t>
+  </si>
+  <si>
     <t xml:space="preserve">7</t>
   </si>
   <si>
@@ -227,6 +239,9 @@
     <t xml:space="preserve">f-Basel21(B) (15:00)</t>
   </si>
   <si>
+    <t xml:space="preserve">15:00</t>
+  </si>
+  <si>
     <t xml:space="preserve">10</t>
   </si>
   <si>
@@ -623,7 +638,7 @@
     <t xml:space="preserve">70</t>
   </si>
   <si>
-    <t xml:space="preserve">        st=1.17:00;</t>
+    <t xml:space="preserve">        st=1,17:00;</t>
   </si>
   <si>
     <t xml:space="preserve">71</t>
@@ -891,33 +906,30 @@
     </font>
     <font>
       <b/>
-      <sz val="14"/>
+      <sz val="11"/>
       <color indexed="9"/>
-      <name val="Calibri"/>
+      <name val="Meiryo UI"/>
     </font>
     <font>
       <b/>
-      <sz val="14"/>
+      <sz val="11"/>
       <color indexed="18"/>
-      <name val="Calibri"/>
+      <name val="Meiryo UI"/>
     </font>
     <font>
-      <b/>
-      <sz val="14"/>
+      <sz val="10"/>
       <color indexed="9"/>
-      <name val="Calibri"/>
+      <name val="Meiryo UI"/>
     </font>
     <font>
-      <b/>
-      <sz val="14"/>
+      <sz val="10"/>
       <color indexed="9"/>
-      <name val="Calibri"/>
+      <name val="Meiryo UI"/>
     </font>
     <font>
-      <b/>
-      <sz val="14"/>
+      <sz val="10"/>
       <color indexed="8"/>
-      <name val="Calibri"/>
+      <name val="Meiryo UI"/>
     </font>
     <font>
       <sz val="11"/>
@@ -925,33 +937,30 @@
     </font>
     <font>
       <b/>
-      <sz val="14"/>
+      <sz val="11"/>
       <color indexed="9"/>
-      <name val="Calibri"/>
+      <name val="Meiryo UI"/>
     </font>
     <font>
       <b/>
-      <sz val="14"/>
+      <sz val="11"/>
       <color indexed="18"/>
-      <name val="Calibri"/>
+      <name val="Meiryo UI"/>
     </font>
     <font>
-      <b/>
-      <sz val="14"/>
+      <sz val="10"/>
       <color indexed="9"/>
-      <name val="Calibri"/>
+      <name val="Meiryo UI"/>
     </font>
     <font>
-      <b/>
-      <sz val="14"/>
+      <sz val="10"/>
       <color indexed="9"/>
-      <name val="Calibri"/>
+      <name val="Meiryo UI"/>
     </font>
     <font>
-      <b/>
-      <sz val="14"/>
+      <sz val="10"/>
       <color indexed="8"/>
-      <name val="Calibri"/>
+      <name val="Meiryo UI"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1180,9 +1189,9 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="7.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="2.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="8" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="2.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="8.42578125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1241,19 +1250,19 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="4" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="6.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="56.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="6.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="11.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="7.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="122.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="7.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="24.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="3.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="5.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="48.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="5.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="6.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="102.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="6.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="9.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="9.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="6.140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1354,10 +1363,10 @@
         <v>36</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="I5" s="12" t="s">
         <v>32</v>
@@ -1372,7 +1381,7 @@
         <v>32</v>
       </c>
       <c r="M5" s="12" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6">
@@ -1380,13 +1389,13 @@
         <v>5</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F6" s="12" t="s">
         <v>32</v>
@@ -1398,7 +1407,7 @@
         <v>32</v>
       </c>
       <c r="I6" s="12" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="J6" s="12" t="s">
         <v>32</v>
@@ -1407,10 +1416,10 @@
         <v>32</v>
       </c>
       <c r="L6" s="12" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="M6" s="12" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7">
@@ -1418,48 +1427,48 @@
         <v>7</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E7" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="I7" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="K7" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="L7" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="M7" s="12" t="s">
         <v>45</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="G7" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="H7" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="I7" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="J7" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="K7" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="L7" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="M7" s="12" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="8">
       <c r="B8" s="12" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E8" s="12" t="s">
         <v>20</v>
@@ -1480,36 +1489,36 @@
         <v>32</v>
       </c>
       <c r="K8" s="12" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="L8" s="12" t="s">
         <v>32</v>
       </c>
       <c r="M8" s="12" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9">
       <c r="B9" s="12" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D9" s="12" t="s">
         <v>30</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F9" s="12" t="s">
         <v>32</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="I9" s="12" t="s">
         <v>32</v>
@@ -1524,21 +1533,21 @@
         <v>32</v>
       </c>
       <c r="M9" s="12" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10">
       <c r="B10" s="12" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="F10" s="12" t="s">
         <v>32</v>
@@ -1550,7 +1559,7 @@
         <v>32</v>
       </c>
       <c r="I10" s="12" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="J10" s="12" t="s">
         <v>32</v>
@@ -1559,24 +1568,24 @@
         <v>32</v>
       </c>
       <c r="L10" s="12" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="M10" s="12" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11">
       <c r="B11" s="12" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="F11" s="12" t="s">
         <v>32</v>
@@ -1588,42 +1597,42 @@
         <v>32</v>
       </c>
       <c r="I11" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="J11" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="K11" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="L11" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="M11" s="12" t="s">
         <v>63</v>
-      </c>
-      <c r="J11" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="K11" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="L11" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="M11" s="12" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="12">
       <c r="B12" s="12" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="D12" s="12" t="s">
         <v>30</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="F12" s="12" t="s">
         <v>32</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>32</v>
+        <v>72</v>
       </c>
       <c r="H12" s="12" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="I12" s="12" t="s">
         <v>32</v>
@@ -1638,21 +1647,21 @@
         <v>32</v>
       </c>
       <c r="M12" s="12" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13">
       <c r="B13" s="12" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="F13" s="12" t="s">
         <v>32</v>
@@ -1664,7 +1673,7 @@
         <v>32</v>
       </c>
       <c r="I13" s="12" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="J13" s="12" t="s">
         <v>32</v>
@@ -1673,24 +1682,24 @@
         <v>32</v>
       </c>
       <c r="L13" s="12" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="M13" s="12" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14">
       <c r="B14" s="12" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="F14" s="12" t="s">
         <v>32</v>
@@ -1702,7 +1711,7 @@
         <v>32</v>
       </c>
       <c r="I14" s="12" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="J14" s="12" t="s">
         <v>32</v>
@@ -1711,10 +1720,10 @@
         <v>32</v>
       </c>
       <c r="L14" s="12" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="M14" s="12" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -1733,9 +1742,9 @@
   <cols>
     <col min="1" max="1" width="5.28515625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="2.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="24.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="21" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1762,13 +1771,13 @@
         <v>1</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1785,11 +1794,11 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="6.42578125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="2.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="15.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="21.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="18.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1816,13 +1825,13 @@
         <v>1</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5">
@@ -1830,13 +1839,13 @@
         <v>3</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6">
@@ -1844,13 +1853,13 @@
         <v>5</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7">
@@ -1858,41 +1867,41 @@
         <v>7</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8">
       <c r="B8" s="12" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9">
       <c r="B9" s="12" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -1909,9 +1918,9 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="5.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="136.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="10" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="4.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="116.140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1932,7 +1941,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5">
@@ -1940,7 +1949,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6">
@@ -1948,7 +1957,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7">
@@ -1956,991 +1965,991 @@
         <v>7</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8">
       <c r="B8" s="12" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9">
       <c r="B9" s="12" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10">
       <c r="B10" s="12" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11">
       <c r="B11" s="12" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="12">
       <c r="B12" s="12" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
     </row>
     <row r="13">
       <c r="B13" s="12" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14">
       <c r="B14" s="12" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15">
       <c r="B15" s="12" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16">
       <c r="B16" s="12" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
     </row>
     <row r="17">
       <c r="B17" s="12" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
     </row>
     <row r="18">
       <c r="B18" s="12" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
     </row>
     <row r="19">
       <c r="B19" s="12" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="20">
       <c r="B20" s="12" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
     </row>
     <row r="21">
       <c r="B21" s="12" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
     </row>
     <row r="22">
       <c r="B22" s="12" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
     </row>
     <row r="23">
       <c r="B23" s="12" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
     </row>
     <row r="24">
       <c r="B24" s="12" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
     </row>
     <row r="25">
       <c r="B25" s="12" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
     </row>
     <row r="26">
       <c r="B26" s="12" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
     </row>
     <row r="27">
       <c r="B27" s="12" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
     </row>
     <row r="28">
       <c r="B28" s="12" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
     </row>
     <row r="29">
       <c r="B29" s="12" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
     </row>
     <row r="30">
       <c r="B30" s="12" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
     </row>
     <row r="31">
       <c r="B31" s="12" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
     </row>
     <row r="32">
       <c r="B32" s="12" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
     </row>
     <row r="33">
       <c r="B33" s="12" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
     </row>
     <row r="34">
       <c r="B34" s="12" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
     </row>
     <row r="35">
       <c r="B35" s="12" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
     </row>
     <row r="36">
       <c r="B36" s="12" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
     </row>
     <row r="37">
       <c r="B37" s="12" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
     </row>
     <row r="38">
       <c r="B38" s="12" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
     </row>
     <row r="39">
       <c r="B39" s="12" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
     </row>
     <row r="40">
       <c r="B40" s="12" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
     </row>
     <row r="41">
       <c r="B41" s="12" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
     </row>
     <row r="42">
       <c r="B42" s="12" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="C42" s="12" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
     </row>
     <row r="43">
       <c r="B43" s="12" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="C43" s="12" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
     </row>
     <row r="44">
       <c r="B44" s="12" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="C44" s="12" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
     </row>
     <row r="45">
       <c r="B45" s="12" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
     </row>
     <row r="46">
       <c r="B46" s="12" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="C46" s="12" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
     </row>
     <row r="47">
       <c r="B47" s="12" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="C47" s="12" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
     </row>
     <row r="48">
       <c r="B48" s="12" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="C48" s="12" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
     </row>
     <row r="49">
       <c r="B49" s="12" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="C49" s="12" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
     </row>
     <row r="50">
       <c r="B50" s="12" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="C50" s="12" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
     </row>
     <row r="51">
       <c r="B51" s="12" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="C51" s="12" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
     </row>
     <row r="52">
       <c r="B52" s="12" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="C52" s="12" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
     </row>
     <row r="53">
       <c r="B53" s="12" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="C53" s="12" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
     </row>
     <row r="54">
       <c r="B54" s="12" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="C54" s="12" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
     </row>
     <row r="55">
       <c r="B55" s="12" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="C55" s="12" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
     </row>
     <row r="56">
       <c r="B56" s="12" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="C56" s="12" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
     </row>
     <row r="57">
       <c r="B57" s="12" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="C57" s="12" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
     </row>
     <row r="58">
       <c r="B58" s="12" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="C58" s="12" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
     </row>
     <row r="59">
       <c r="B59" s="12" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="C59" s="12" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
     </row>
     <row r="60">
       <c r="B60" s="12" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="C60" s="12" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
     </row>
     <row r="61">
       <c r="B61" s="12" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="C61" s="12" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
     </row>
     <row r="62">
       <c r="B62" s="12" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="C62" s="12" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
     </row>
     <row r="63">
       <c r="B63" s="12" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="C63" s="12" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
     </row>
     <row r="64">
       <c r="B64" s="12" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="C64" s="12" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
     </row>
     <row r="65">
       <c r="B65" s="12" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="C65" s="12" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
     </row>
     <row r="66">
       <c r="B66" s="12" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="C66" s="12" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
     </row>
     <row r="67">
       <c r="B67" s="12" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="C67" s="12" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
     </row>
     <row r="68">
       <c r="B68" s="12" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="C68" s="12" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
     </row>
     <row r="69">
       <c r="B69" s="12" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="C69" s="12" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
     </row>
     <row r="70">
       <c r="B70" s="12" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="C70" s="12" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
     </row>
     <row r="71">
       <c r="B71" s="12" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="C71" s="12" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
     </row>
     <row r="72">
       <c r="B72" s="12" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="C72" s="12" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
     </row>
     <row r="73">
       <c r="B73" s="12" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="C73" s="12" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
     </row>
     <row r="74">
       <c r="B74" s="12" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="C74" s="12" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
     </row>
     <row r="75">
       <c r="B75" s="12" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="C75" s="12" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
     </row>
     <row r="76">
       <c r="B76" s="12" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="C76" s="12" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
     </row>
     <row r="77">
       <c r="B77" s="12" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="C77" s="12" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
     </row>
     <row r="78">
       <c r="B78" s="12" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="C78" s="12" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
     </row>
     <row r="79">
       <c r="B79" s="12" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="C79" s="12" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
     </row>
     <row r="80">
       <c r="B80" s="12" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="C80" s="12" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
     </row>
     <row r="81">
       <c r="B81" s="12" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="C81" s="12" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
     </row>
     <row r="82">
       <c r="B82" s="12" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="C82" s="12" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
     </row>
     <row r="83">
       <c r="B83" s="12" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="C83" s="12" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
     </row>
     <row r="84">
       <c r="B84" s="12" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="C84" s="12" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
     </row>
     <row r="85">
       <c r="B85" s="12" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="C85" s="12" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
     </row>
     <row r="86">
       <c r="B86" s="12" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="C86" s="12" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
     </row>
     <row r="87">
       <c r="B87" s="12" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="C87" s="12" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
     </row>
     <row r="88">
       <c r="B88" s="12" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="C88" s="12" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
     </row>
     <row r="89">
       <c r="B89" s="12" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="C89" s="12" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
     </row>
     <row r="90">
       <c r="B90" s="12" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="C90" s="12" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
     </row>
     <row r="91">
       <c r="B91" s="12" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="C91" s="12" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
     </row>
     <row r="92">
       <c r="B92" s="12" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="C92" s="12" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
     </row>
     <row r="93">
       <c r="B93" s="12" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="C93" s="12" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
     </row>
     <row r="94">
       <c r="B94" s="12" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="C94" s="12" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
     </row>
     <row r="95">
       <c r="B95" s="12" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="C95" s="12" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
     </row>
     <row r="96">
       <c r="B96" s="12" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="C96" s="12" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
     </row>
     <row r="97">
       <c r="B97" s="12" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="C97" s="12" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
     </row>
     <row r="98">
       <c r="B98" s="12" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="C98" s="12" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
     </row>
     <row r="99">
       <c r="B99" s="12" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="C99" s="12" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
     </row>
     <row r="100">
       <c r="B100" s="12" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="C100" s="12" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
     </row>
     <row r="101">
       <c r="B101" s="12" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="C101" s="12" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
     </row>
     <row r="102">
       <c r="B102" s="12" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="C102" s="12" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
     </row>
     <row r="103">
       <c r="B103" s="12" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="C103" s="12" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
     </row>
     <row r="104">
       <c r="B104" s="12" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="C104" s="12" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
     </row>
     <row r="105">
       <c r="B105" s="12" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="C105" s="12" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
     </row>
     <row r="106">
       <c r="B106" s="12" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="C106" s="12" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
     </row>
     <row r="107">
       <c r="B107" s="12" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="C107" s="12" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
     </row>
     <row r="108">
       <c r="B108" s="12" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="C108" s="12" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
     </row>
     <row r="109">
       <c r="B109" s="12" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="C109" s="12" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
     </row>
     <row r="110">
       <c r="B110" s="12" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="C110" s="12" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
     </row>
     <row r="111">
       <c r="B111" s="12" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="C111" s="12" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
     </row>
     <row r="112">
       <c r="B112" s="12" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="C112" s="12" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
     </row>
     <row r="113">
       <c r="B113" s="12" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="C113" s="12" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
     </row>
     <row r="114">
       <c r="B114" s="12" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="C114" s="12" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
     </row>
     <row r="115">
       <c r="B115" s="12" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="C115" s="12" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
     </row>
     <row r="116">
       <c r="B116" s="12" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C116" s="12" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
     </row>
     <row r="117">
       <c r="B117" s="12" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="C117" s="12" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
     </row>
     <row r="118">
       <c r="B118" s="12" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="C118" s="12" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
     </row>
     <row r="119">
       <c r="B119" s="12" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="C119" s="12" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
     </row>
     <row r="120">
       <c r="B120" s="12" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="C120" s="12" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
     </row>
     <row r="121">
       <c r="B121" s="12" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="C121" s="12" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
     </row>
     <row r="122">
       <c r="B122" s="12" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="C122" s="12" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
     </row>
     <row r="123">
       <c r="B123" s="12" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="C123" s="12" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
     </row>
     <row r="124">
       <c r="B124" s="12" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="C124" s="12" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
     </row>
     <row r="125">
       <c r="B125" s="12" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="C125" s="12" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
     </row>
     <row r="126">
       <c r="B126" s="12" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="C126" s="12" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
     </row>
     <row r="127">
       <c r="B127" s="12" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="C127" s="12" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
     </row>
     <row r="128">
       <c r="B128" s="12" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="C128" s="12" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
     </row>
     <row r="129">
       <c r="B129" s="12" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="C129" s="12" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
     </row>
     <row r="130">
       <c r="B130" s="12" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="C130" s="12" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
     </row>
   </sheetData>

--- a/KnToolsJp1Ajs/Data/jp1def-test03.xlsx
+++ b/KnToolsJp1Ajs/Data/jp1def-test03.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="285">
   <si>
     <t xml:space="preserve">Index</t>
   </si>
@@ -122,28 +122,28 @@
     <t xml:space="preserve"/>
   </si>
   <si>
+    <t xml:space="preserve">+00:00</t>
+  </si>
+  <si>
     <t xml:space="preserve">/</t>
   </si>
   <si>
-    <t xml:space="preserve">DERIADO5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DERIAD05    no Net</t>
+    <t xml:space="preserve">TESTUNITADO5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TESTUNITYY05ネットコメント</t>
   </si>
   <si>
     <t xml:space="preserve">y</t>
   </si>
   <si>
-    <t xml:space="preserve">+00:00</t>
-  </si>
-  <si>
     <t xml:space="preserve">(1.d)</t>
   </si>
   <si>
     <t xml:space="preserve">/testAJS3</t>
   </si>
   <si>
-    <t xml:space="preserve">DERIAD0501</t>
+    <t xml:space="preserve">TESTUNITYY0501</t>
   </si>
   <si>
     <t xml:space="preserve">j</t>
@@ -152,22 +152,22 @@
     <t xml:space="preserve">IF-</t>
   </si>
   <si>
-    <t xml:space="preserve">/nkSec/jobct Il/scripts/execjob -a derico EUDR0302 /nkSec/derico/batch/if-server/script/start_stphandler.sh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">appadm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/testAJS3/DERIADO5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DERIAD0502</t>
+    <t xml:space="preserve">/usr/bin/test501.sh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unusr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/testAJS3/TESTUNITADO5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TESTUNITYY0502</t>
   </si>
   <si>
     <t xml:space="preserve">G監視起動</t>
   </si>
   <si>
-    <t xml:space="preserve">/nkSec/jobct 1/scripts/execiob -a derico EUDR6060 /nkSec/infra/scripts/gcchkctl -b /nkSec start</t>
+    <t xml:space="preserve">/usr/bin/test502.sh</t>
   </si>
   <si>
     <t xml:space="preserve">appadam</t>
@@ -188,7 +188,7 @@
     <t xml:space="preserve">6</t>
   </si>
   <si>
-    <t xml:space="preserve">DERIADO9</t>
+    <t xml:space="preserve">TESTUNITADO9</t>
   </si>
   <si>
     <t xml:space="preserve">Strategyebl21(+)(17:00)</t>
@@ -203,16 +203,13 @@
     <t xml:space="preserve">7</t>
   </si>
   <si>
-    <t xml:space="preserve">DERIAD0901</t>
-  </si>
-  <si>
-    <t xml:space="preserve">StratergyWeb()</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/nkSec/jobct 1/scripts/execjob -a derico EUDRO300 /nkSec/derico/batch/scripts/b_stweb_trade_mk_1st.csh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/testAJS3/DERIADO9</t>
+    <t xml:space="preserve">TESTUNITAD0901</t>
+  </si>
+  <si>
+    <t xml:space="preserve">コメントジョブ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/testAJS3/TESTUNITADO9</t>
   </si>
   <si>
     <t xml:space="preserve">8</t>
@@ -221,10 +218,10 @@
     <t xml:space="preserve">SO_YKH-DR012</t>
   </si>
   <si>
-    <t xml:space="preserve">ID=YKHODRO 12/Derico_SH_OTCTrade Online.csv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/HLFT/unvo/script/jpl hulsnd.sh -fl YKHDR012</t>
+    <t xml:space="preserve">ID=HULFTID csvfile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/HULFT/hulsnd.sh -f IDhogeHULFT</t>
   </si>
   <si>
     <t xml:space="preserve">hulft</t>
@@ -233,7 +230,7 @@
     <t xml:space="preserve">9</t>
   </si>
   <si>
-    <t xml:space="preserve">DERIAD20</t>
+    <t xml:space="preserve">TESTUNITAD20</t>
   </si>
   <si>
     <t xml:space="preserve">f-Basel21(B) (15:00)</t>
@@ -245,16 +242,16 @@
     <t xml:space="preserve">10</t>
   </si>
   <si>
-    <t xml:space="preserve">DERIAD2001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">f-Base連携ファイル (休日マスタ情報) 作成処理</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/nkSec/jobct 1/scripts/execiob a derico EUDR0300 /nkSec/derico/batch/scripts/b_fbase holiday_mk.csh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/testAJS3/DERIAD20</t>
+    <t xml:space="preserve">TESTUNITAD2001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">連携ファイル (休日マスタ情報) 作成処理</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/test/batch/scripts/b_aaa.sh holiday</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/testAJS3/TESTUNITAD20</t>
   </si>
   <si>
     <t xml:space="preserve">11</t>
@@ -266,25 +263,25 @@
     <t xml:space="preserve">ID=FBSDR014/holiday_to_fbase.csv</t>
   </si>
   <si>
-    <t xml:space="preserve">/HLFT/unyo/script/jpl/hulsnd.sh - FBSDR014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DERIAD05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DERIAD09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/DERIADO5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/DERIADO9</t>
+    <t xml:space="preserve">/HLFT/hulsnd.sh -f IDTESThulftxx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TESTUNITYY05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TESTUNITAD09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/TESTUNITADO5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/TESTUNITADO9</t>
   </si>
   <si>
     <t xml:space="preserve">SD_FBSDR014.sea</t>
   </si>
   <si>
-    <t xml:space="preserve">/DERIAD20</t>
+    <t xml:space="preserve">/TESTUNITAD20</t>
   </si>
   <si>
     <t xml:space="preserve">unit=testAJS3,,jpluser,;</t>
@@ -302,22 +299,22 @@
     <t xml:space="preserve">    sz=10x8; </t>
   </si>
   <si>
-    <t xml:space="preserve">    el=DERIAD05,n,+240+144;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    el=DERIAD09,n,+400+528;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    el=DERIAD20,n,+560+336;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    ar=(f=DERIAD05,t=DERIAD09,sea);</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    ar=(f=DERIAD05,t=DERIAD20,sea);</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    ar=(f=FLCK_DDDD,t=DERIAD20,sea);</t>
+    <t xml:space="preserve">    el=TESTUNITYY05,n,+240+144;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    el=TESTUNITAD09,n,+400+528;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    el=TESTUNITAD20,n,+560+336;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ar=(f=TESTUNITYY05,t=TESTUNITAD09,sea);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ar=(f=TESTUNITYY05,t=TESTUNITAD20,sea);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ar=(f=FLCK_DDDD,t=TESTUNITAD20,sea);</t>
   </si>
   <si>
     <t xml:space="preserve">12</t>
@@ -347,7 +344,7 @@
     <t xml:space="preserve">16</t>
   </si>
   <si>
-    <t xml:space="preserve">    unit=DERIADO5,,ipluser,;</t>
+    <t xml:space="preserve">    unit=TESTUNITADO5,,jpluser,;</t>
   </si>
   <si>
     <t xml:space="preserve">17</t>
@@ -365,7 +362,7 @@
     <t xml:space="preserve">19</t>
   </si>
   <si>
-    <t xml:space="preserve">        cm="DERIAD05    no Net";</t>
+    <t xml:space="preserve">        cm="TESTUNITYY05ネットコメント";</t>
   </si>
   <si>
     <t xml:space="preserve">20</t>
@@ -377,13 +374,13 @@
     <t xml:space="preserve">21</t>
   </si>
   <si>
-    <t xml:space="preserve">        el=DERIADO501,j,+240+144;</t>
+    <t xml:space="preserve">        el=TESTUNITADO501,j,+240+144;</t>
   </si>
   <si>
     <t xml:space="preserve">22</t>
   </si>
   <si>
-    <t xml:space="preserve">        el=DERIAD0502,j,+560+144;</t>
+    <t xml:space="preserve">        el=TESTUNITYY0502,j,+560+144;</t>
   </si>
   <si>
     <t xml:space="preserve">23</t>
@@ -395,7 +392,7 @@
     <t xml:space="preserve">24</t>
   </si>
   <si>
-    <t xml:space="preserve">        ar=(f=DERIAD0501,t=DERIAD0502, seq);</t>
+    <t xml:space="preserve">        ar=(f=TESTUNITYY0501,t=TESTUNITYY0502, seq);</t>
   </si>
   <si>
     <t xml:space="preserve">25</t>
@@ -443,7 +440,7 @@
     <t xml:space="preserve">32</t>
   </si>
   <si>
-    <t xml:space="preserve">        unit=DERIAD0501,,jpluser,;</t>
+    <t xml:space="preserve">        unit=TESTUNITYY0501,,jpluser,;</t>
   </si>
   <si>
     <t xml:space="preserve">33</t>
@@ -467,13 +464,13 @@
     <t xml:space="preserve">36</t>
   </si>
   <si>
-    <t xml:space="preserve">            te="/nkSec/jobct Il/scripts/execjob -a derico EUDR0302 /nkSec/derico/batch/if-server/script/start_stphandler.sh";</t>
+    <t xml:space="preserve">            te="/usr/bin/test501.sh";</t>
   </si>
   <si>
     <t xml:space="preserve">37</t>
   </si>
   <si>
-    <t xml:space="preserve">            un="appadm";</t>
+    <t xml:space="preserve">            un="unusr";</t>
   </si>
   <si>
     <t xml:space="preserve">38</t>
@@ -497,7 +494,7 @@
     <t xml:space="preserve">41</t>
   </si>
   <si>
-    <t xml:space="preserve">        unit=DERIAD0502,,ipluser,;</t>
+    <t xml:space="preserve">        unit=TESTUNITYY0502,,jpluser,;</t>
   </si>
   <si>
     <t xml:space="preserve">42</t>
@@ -515,7 +512,7 @@
     <t xml:space="preserve">45</t>
   </si>
   <si>
-    <t xml:space="preserve">            te="/nkSec/jobct 1/scripts/execiob -a derico EUDR6060 /nkSec/infra/scripts/gcchkctl -b /nkSec start";</t>
+    <t xml:space="preserve">            te="/usr/bin/test502.sh";</t>
   </si>
   <si>
     <t xml:space="preserve">46</t>
@@ -536,7 +533,7 @@
     <t xml:space="preserve">50</t>
   </si>
   <si>
-    <t xml:space="preserve">        unit=FLCK_DDDD,,ipluser,;</t>
+    <t xml:space="preserve">        unit=FLCK_DDDD,,jpluser,;</t>
   </si>
   <si>
     <t xml:space="preserve">51</t>
@@ -593,7 +590,7 @@
     <t xml:space="preserve">61</t>
   </si>
   <si>
-    <t xml:space="preserve">    unit=DERIADO9,,ipluser,;</t>
+    <t xml:space="preserve">    unit=TESTUNITADO9,,jpluser,;</t>
   </si>
   <si>
     <t xml:space="preserve">62</t>
@@ -614,7 +611,7 @@
     <t xml:space="preserve">66</t>
   </si>
   <si>
-    <t xml:space="preserve">        el=DERIAD0901,j,+240+144;</t>
+    <t xml:space="preserve">        el=TESTUNITAD0901,j,+240+144;</t>
   </si>
   <si>
     <t xml:space="preserve">67</t>
@@ -626,15 +623,12 @@
     <t xml:space="preserve">68</t>
   </si>
   <si>
-    <t xml:space="preserve">        ar=(f=DERIAD0901,t=SO_YKH-DR012, seq);</t>
+    <t xml:space="preserve">        ar=(f=TESTUNITAD0901,t=SO_YKH-DR012, seq);</t>
   </si>
   <si>
     <t xml:space="preserve">69</t>
   </si>
   <si>
-    <t xml:space="preserve">        sd=1.2018/11/01;</t>
-  </si>
-  <si>
     <t xml:space="preserve">70</t>
   </si>
   <si>
@@ -662,7 +656,7 @@
     <t xml:space="preserve">75</t>
   </si>
   <si>
-    <t xml:space="preserve">        unit DERIAD0901,,jpluser,;</t>
+    <t xml:space="preserve">        unit TESTUNITAD0901,,jpluser,;</t>
   </si>
   <si>
     <t xml:space="preserve">76</t>
@@ -674,15 +668,12 @@
     <t xml:space="preserve">78</t>
   </si>
   <si>
-    <t xml:space="preserve">            cm="StratergyWeb()";</t>
+    <t xml:space="preserve">            cm="コメントジョブ";</t>
   </si>
   <si>
     <t xml:space="preserve">79</t>
   </si>
   <si>
-    <t xml:space="preserve">            te="/nkSec/jobct 1/scripts/execjob -a derico EUDRO300 /nkSec/derico/batch/scripts/b_stweb_trade_mk_1st.csh";</t>
-  </si>
-  <si>
     <t xml:space="preserve">80</t>
   </si>
   <si>
@@ -698,7 +689,7 @@
     <t xml:space="preserve">84</t>
   </si>
   <si>
-    <t xml:space="preserve">        unit=SO_YKH-DR012,,pluser,;</t>
+    <t xml:space="preserve">        unit=SO_YKH-DR012,,jp1user,;</t>
   </si>
   <si>
     <t xml:space="preserve">85</t>
@@ -710,13 +701,13 @@
     <t xml:space="preserve">87</t>
   </si>
   <si>
-    <t xml:space="preserve">            cm="ID=YKHODRO 12/Derico_SH_OTCTrade Online.csv";</t>
+    <t xml:space="preserve">            cm="ID=HULFTID csvfile";</t>
   </si>
   <si>
     <t xml:space="preserve">88</t>
   </si>
   <si>
-    <t xml:space="preserve">            te="/HLFT/unvo/script/jpl hulsnd.sh -fl YKHDR012";</t>
+    <t xml:space="preserve">            te="/HULFT/hulsnd.sh -f IDhogeHULFT";</t>
   </si>
   <si>
     <t xml:space="preserve">89</t>
@@ -746,7 +737,7 @@
     <t xml:space="preserve">94</t>
   </si>
   <si>
-    <t xml:space="preserve">    unit=DERIAD20,,jpluser,;</t>
+    <t xml:space="preserve">    unit=TESTUNITAD20,,jpluser,;</t>
   </si>
   <si>
     <t xml:space="preserve">95</t>
@@ -767,7 +758,7 @@
     <t xml:space="preserve">99</t>
   </si>
   <si>
-    <t xml:space="preserve">        el=DERIAD2001,j.+240+144;</t>
+    <t xml:space="preserve">        el=TESTUNITAD2001,j.+240+144;</t>
   </si>
   <si>
     <t xml:space="preserve">100</t>
@@ -779,7 +770,7 @@
     <t xml:space="preserve">101</t>
   </si>
   <si>
-    <t xml:space="preserve">        ar=(DERIAD2001,t=SD_FBSDR014.sea);</t>
+    <t xml:space="preserve">        ar=(TESTUNITAD2001,t=SD_FBSDR014.sea);</t>
   </si>
   <si>
     <t xml:space="preserve">102</t>
@@ -809,7 +800,7 @@
     <t xml:space="preserve">108</t>
   </si>
   <si>
-    <t xml:space="preserve">        unit=DERIAD2001,,jpluser,;</t>
+    <t xml:space="preserve">        unit=TESTUNITAD2001,,jpluser,;</t>
   </si>
   <si>
     <t xml:space="preserve">109</t>
@@ -821,13 +812,13 @@
     <t xml:space="preserve">111</t>
   </si>
   <si>
-    <t xml:space="preserve">            cm="f-Base連携ファイル (休日マスタ情報) 作成処理";</t>
+    <t xml:space="preserve">            cm="連携ファイル (休日マスタ情報) 作成処理";</t>
   </si>
   <si>
     <t xml:space="preserve">112</t>
   </si>
   <si>
-    <t xml:space="preserve">            te="/nkSec/jobct 1/scripts/execiob a derico EUDR0300 /nkSec/derico/batch/scripts/b_fbase holiday_mk.csh";</t>
+    <t xml:space="preserve">            te="/test/batch/scripts/b_aaa.sh holiday";</t>
   </si>
   <si>
     <t xml:space="preserve">113</t>
@@ -863,7 +854,7 @@
     <t xml:space="preserve">121</t>
   </si>
   <si>
-    <t xml:space="preserve">            te="/HLFT/unyo/script/jpl/hulsnd.sh - FBSDR014";</t>
+    <t xml:space="preserve">            te="/HLFT/hulsnd.sh -f IDTESThulftxx";</t>
   </si>
   <si>
     <t xml:space="preserve">122</t>
@@ -892,7 +883,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="13">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -901,64 +892,56 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="10"/>
       <color indexed="9"/>
       <name val="Meiryo UI"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="10"/>
       <color indexed="18"/>
       <name val="Meiryo UI"/>
     </font>
     <font>
+      <sz val="9"/>
+      <color indexed="9"/>
+      <name val="Meiryo UI"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="9"/>
+      <name val="Meiryo UI"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="8"/>
+      <name val="Meiryo UI"/>
+    </font>
+    <font>
+      <b/>
       <sz val="10"/>
       <color indexed="9"/>
       <name val="Meiryo UI"/>
     </font>
     <font>
+      <b/>
       <sz val="10"/>
+      <color indexed="18"/>
+      <name val="Meiryo UI"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <color indexed="9"/>
       <name val="Meiryo UI"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Meiryo UI"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="9"/>
       <color indexed="9"/>
       <name val="Meiryo UI"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="18"/>
-      <name val="Meiryo UI"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="9"/>
-      <name val="Meiryo UI"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="9"/>
-      <name val="Meiryo UI"/>
-    </font>
-    <font>
-      <sz val="10"/>
+      <sz val="9"/>
       <color indexed="8"/>
       <name val="Meiryo UI"/>
     </font>
@@ -1143,38 +1126,36 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1189,45 +1170,45 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="2.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="8.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="2.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="7.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3">
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4">
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5">
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6">
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1250,480 +1231,480 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="3.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="5.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="48.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="5.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="6.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="102.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="6.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="9.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="9.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="6.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="5.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="3.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="5.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="31.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="4.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="9.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="5.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="31.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="5.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="8.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="8.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="23.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3">
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="J3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="K3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="L3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="M3" s="3" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="4">
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="F4" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="G4" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="H4" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="I4" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="J4" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="K4" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="L4" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="M4" s="12" t="s">
+      <c r="F4" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" s="10" t="s">
         <v>33</v>
       </c>
+      <c r="H4" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="J4" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="K4" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="L4" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="M4" s="10" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="5">
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="D5" s="12" t="s">
+      <c r="C5" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="F5" s="12" t="s">
+      <c r="E5" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="G5" s="12" t="s">
+      <c r="F5" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="H5" s="12" t="s">
+      <c r="G5" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="H5" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="I5" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="J5" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="K5" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="L5" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="M5" s="12" t="s">
+      <c r="I5" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="J5" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="K5" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="L5" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="M5" s="10" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="6">
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="F6" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="G6" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="H6" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="I6" s="12" t="s">
+      <c r="F6" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="I6" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="J6" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="K6" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="L6" s="12" t="s">
+      <c r="J6" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="K6" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="L6" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="M6" s="12" t="s">
+      <c r="M6" s="10" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="7">
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="F7" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="G7" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="H7" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="I7" s="12" t="s">
+      <c r="F7" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="I7" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="J7" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="K7" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="L7" s="12" t="s">
+      <c r="J7" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="K7" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="L7" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="M7" s="12" t="s">
+      <c r="M7" s="10" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="8">
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="E8" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="G8" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="H8" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="I8" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="J8" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="K8" s="12" t="s">
+      <c r="F8" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="J8" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="K8" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="L8" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="M8" s="12" t="s">
+      <c r="L8" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="M8" s="10" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="9">
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="E9" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="F9" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="G9" s="12" t="s">
+      <c r="F9" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="H9" s="12" t="s">
+      <c r="H9" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="I9" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="J9" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="K9" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="L9" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="M9" s="12" t="s">
+      <c r="I9" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="J9" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="K9" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="L9" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="M9" s="10" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="10">
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="E10" s="12" t="s">
+      <c r="E10" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="F10" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="G10" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="H10" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="I10" s="12" t="s">
+      <c r="F10" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="I10" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="J10" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="K10" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="L10" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="M10" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="J10" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="K10" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="L10" s="12" t="s">
+    </row>
+    <row r="11">
+      <c r="B11" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="I11" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="J11" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="K11" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="L11" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="M11" s="10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="H12" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="I12" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="J12" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="K12" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="L12" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="M12" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="B13" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="H13" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="I13" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="J13" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="K13" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="L13" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="M10" s="12" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="B11" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="D11" s="12" t="s">
+      <c r="M13" s="10" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="B14" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="D14" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="E11" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="F11" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="G11" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="H11" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="I11" s="12" t="s">
+      <c r="E14" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="H14" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="I14" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="J14" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="K14" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="L14" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="J11" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="K11" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="L11" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="M11" s="12" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="B12" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="E12" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="F12" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="G12" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="H12" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="I12" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="J12" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="K12" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="L12" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="M12" s="12" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="B13" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="F13" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="G13" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="H13" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="I13" s="12" t="s">
+      <c r="M14" s="10" t="s">
         <v>76</v>
-      </c>
-      <c r="J13" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="K13" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="L13" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="M13" s="12" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="B14" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="E14" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="F14" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="G14" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="H14" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="I14" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="J14" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="K14" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="L14" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="M14" s="12" t="s">
-        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -1740,43 +1721,43 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="2.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="21" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="4.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="2.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="8.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="23.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3">
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="4">
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="10" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1794,114 +1775,114 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="2.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="18.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="5.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="2.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="16.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="3">
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="4">
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="D4" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="E4" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="E4" s="12" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="B5" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="B6" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="B7" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="E7" s="12" t="s">
+    </row>
+    <row r="8">
+      <c r="B8" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="E8" s="10" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="8">
-      <c r="B8" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="E8" s="12" t="s">
+    <row r="9">
+      <c r="B9" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="D9" s="10" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="9">
-      <c r="B9" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="D9" s="12" t="s">
+      <c r="E9" s="10" t="s">
         <v>86</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -1918,1038 +1899,1038 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="4.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="116.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="9.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="4.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="49.85546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="3">
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="4">
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="10" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="5">
-      <c r="B5" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="12" t="s">
+    <row r="6">
+      <c r="B6" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="10" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="6">
-      <c r="B6" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="12" t="s">
+    <row r="7">
+      <c r="B7" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="10" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="7">
-      <c r="B7" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="12" t="s">
+    <row r="8">
+      <c r="B8" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" s="10" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="8">
-      <c r="B8" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="C8" s="12" t="s">
+    <row r="9">
+      <c r="B9" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" s="10" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="9">
-      <c r="B9" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="C9" s="12" t="s">
+    <row r="10">
+      <c r="B10" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" s="10" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="10">
-      <c r="B10" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="C10" s="12" t="s">
+    <row r="11">
+      <c r="B11" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C11" s="10" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="11">
-      <c r="B11" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="C11" s="12" t="s">
+    <row r="12">
+      <c r="B12" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C12" s="10" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="12">
-      <c r="B12" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="C12" s="12" t="s">
+    <row r="13">
+      <c r="B13" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C13" s="10" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="13">
-      <c r="B13" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="C13" s="12" t="s">
+    <row r="14">
+      <c r="B14" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="C14" s="10" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="14">
-      <c r="B14" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="C14" s="12" t="s">
+    <row r="15">
+      <c r="B15" s="10" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="15">
-      <c r="B15" s="12" t="s">
+      <c r="C15" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="C15" s="12" t="s">
+    </row>
+    <row r="16">
+      <c r="B16" s="10" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="16">
-      <c r="B16" s="12" t="s">
+      <c r="C16" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="C16" s="12" t="s">
+    </row>
+    <row r="17">
+      <c r="B17" s="10" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="17">
-      <c r="B17" s="12" t="s">
+      <c r="C17" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="C17" s="12" t="s">
+    </row>
+    <row r="18">
+      <c r="B18" s="10" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="18">
-      <c r="B18" s="12" t="s">
+      <c r="C18" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="C18" s="12" t="s">
+    </row>
+    <row r="19">
+      <c r="B19" s="10" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="19">
-      <c r="B19" s="12" t="s">
+      <c r="C19" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="C19" s="12" t="s">
+    </row>
+    <row r="20">
+      <c r="B20" s="10" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="20">
-      <c r="B20" s="12" t="s">
+      <c r="C20" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="C20" s="12" t="s">
+    </row>
+    <row r="21">
+      <c r="B21" s="10" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="21">
-      <c r="B21" s="12" t="s">
+      <c r="C21" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="C21" s="12" t="s">
+    </row>
+    <row r="22">
+      <c r="B22" s="10" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="22">
-      <c r="B22" s="12" t="s">
+      <c r="C22" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="C22" s="12" t="s">
+    </row>
+    <row r="23">
+      <c r="B23" s="10" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="23">
-      <c r="B23" s="12" t="s">
+      <c r="C23" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="C23" s="12" t="s">
+    </row>
+    <row r="24">
+      <c r="B24" s="10" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="24">
-      <c r="B24" s="12" t="s">
+      <c r="C24" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="C24" s="12" t="s">
+    </row>
+    <row r="25">
+      <c r="B25" s="10" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="25">
-      <c r="B25" s="12" t="s">
+      <c r="C25" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="C25" s="12" t="s">
+    </row>
+    <row r="26">
+      <c r="B26" s="10" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="26">
-      <c r="B26" s="12" t="s">
+      <c r="C26" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="C26" s="12" t="s">
+    </row>
+    <row r="27">
+      <c r="B27" s="10" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="27">
-      <c r="B27" s="12" t="s">
+      <c r="C27" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="C27" s="12" t="s">
+    </row>
+    <row r="28">
+      <c r="B28" s="10" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="28">
-      <c r="B28" s="12" t="s">
+      <c r="C28" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="C28" s="12" t="s">
+    </row>
+    <row r="29">
+      <c r="B29" s="10" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="29">
-      <c r="B29" s="12" t="s">
+      <c r="C29" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="C29" s="12" t="s">
+    </row>
+    <row r="30">
+      <c r="B30" s="10" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="30">
-      <c r="B30" s="12" t="s">
+      <c r="C30" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="C30" s="12" t="s">
+    </row>
+    <row r="31">
+      <c r="B31" s="10" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="31">
-      <c r="B31" s="12" t="s">
+      <c r="C31" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="C31" s="12" t="s">
+    </row>
+    <row r="32">
+      <c r="B32" s="10" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="32">
-      <c r="B32" s="12" t="s">
+      <c r="C32" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="C32" s="12" t="s">
+    </row>
+    <row r="33">
+      <c r="B33" s="10" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="33">
-      <c r="B33" s="12" t="s">
+      <c r="C33" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="C33" s="12" t="s">
+    </row>
+    <row r="34">
+      <c r="B34" s="10" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="34">
-      <c r="B34" s="12" t="s">
+      <c r="C34" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="C34" s="12" t="s">
+    </row>
+    <row r="35">
+      <c r="B35" s="10" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="35">
-      <c r="B35" s="12" t="s">
+      <c r="C35" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="C35" s="12" t="s">
+    </row>
+    <row r="36">
+      <c r="B36" s="10" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="36">
-      <c r="B36" s="12" t="s">
+      <c r="C36" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="C36" s="12" t="s">
+    </row>
+    <row r="37">
+      <c r="B37" s="10" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="37">
-      <c r="B37" s="12" t="s">
+      <c r="C37" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="C37" s="12" t="s">
+    </row>
+    <row r="38">
+      <c r="B38" s="10" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="38">
-      <c r="B38" s="12" t="s">
+      <c r="C38" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="C38" s="12" t="s">
+    </row>
+    <row r="39">
+      <c r="B39" s="10" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="39">
-      <c r="B39" s="12" t="s">
+      <c r="C39" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="C39" s="12" t="s">
+    </row>
+    <row r="40">
+      <c r="B40" s="10" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="40">
-      <c r="B40" s="12" t="s">
+      <c r="C40" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="C40" s="12" t="s">
+    </row>
+    <row r="41">
+      <c r="B41" s="10" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="41">
-      <c r="B41" s="12" t="s">
+      <c r="C41" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="C41" s="12" t="s">
+    </row>
+    <row r="42">
+      <c r="B42" s="10" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="42">
-      <c r="B42" s="12" t="s">
+      <c r="C42" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="C42" s="12" t="s">
+    </row>
+    <row r="43">
+      <c r="B43" s="10" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="43">
-      <c r="B43" s="12" t="s">
+      <c r="C43" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="C43" s="12" t="s">
+    </row>
+    <row r="44">
+      <c r="B44" s="10" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="44">
-      <c r="B44" s="12" t="s">
+      <c r="C44" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="C44" s="12" t="s">
+    </row>
+    <row r="45">
+      <c r="B45" s="10" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="45">
-      <c r="B45" s="12" t="s">
+      <c r="C45" s="10" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="B46" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="C45" s="12" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="B46" s="12" t="s">
+      <c r="C46" s="10" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="B47" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="C46" s="12" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="B47" s="12" t="s">
+      <c r="C47" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="C47" s="12" t="s">
+    </row>
+    <row r="48">
+      <c r="B48" s="10" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="48">
-      <c r="B48" s="12" t="s">
+      <c r="C48" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="C48" s="12" t="s">
+    </row>
+    <row r="49">
+      <c r="B49" s="10" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="49">
-      <c r="B49" s="12" t="s">
+      <c r="C49" s="10" t="s">
         <v>165</v>
       </c>
-      <c r="C49" s="12" t="s">
+    </row>
+    <row r="50">
+      <c r="B50" s="10" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="50">
-      <c r="B50" s="12" t="s">
+      <c r="C50" s="10" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="B51" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="C50" s="12" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="B51" s="12" t="s">
+      <c r="C51" s="10" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="B52" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="C51" s="12" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="B52" s="12" t="s">
+      <c r="C52" s="10" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="B53" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="C52" s="12" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="B53" s="12" t="s">
+      <c r="C53" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="C53" s="12" t="s">
+    </row>
+    <row r="54">
+      <c r="B54" s="10" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="54">
-      <c r="B54" s="12" t="s">
+      <c r="C54" s="10" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="B55" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="C54" s="12" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="B55" s="12" t="s">
+      <c r="C55" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="C55" s="12" t="s">
+    </row>
+    <row r="56">
+      <c r="B56" s="10" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="56">
-      <c r="B56" s="12" t="s">
+      <c r="C56" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="C56" s="12" t="s">
+    </row>
+    <row r="57">
+      <c r="B57" s="10" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="57">
-      <c r="B57" s="12" t="s">
+      <c r="C57" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="C57" s="12" t="s">
+    </row>
+    <row r="58">
+      <c r="B58" s="10" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="58">
-      <c r="B58" s="12" t="s">
+      <c r="C58" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="C58" s="12" t="s">
+    </row>
+    <row r="59">
+      <c r="B59" s="10" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="59">
-      <c r="B59" s="12" t="s">
+      <c r="C59" s="10" t="s">
         <v>181</v>
       </c>
-      <c r="C59" s="12" t="s">
+    </row>
+    <row r="60">
+      <c r="B60" s="10" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="60">
-      <c r="B60" s="12" t="s">
+      <c r="C60" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="C60" s="12" t="s">
+    </row>
+    <row r="61">
+      <c r="B61" s="10" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="61">
-      <c r="B61" s="12" t="s">
+      <c r="C61" s="10" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="B62" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="C61" s="12" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="B62" s="12" t="s">
+      <c r="C62" s="10" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="B63" s="10" t="s">
         <v>186</v>
       </c>
-      <c r="C62" s="12" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="B63" s="12" t="s">
+      <c r="C63" s="10" t="s">
         <v>187</v>
       </c>
-      <c r="C63" s="12" t="s">
+    </row>
+    <row r="64">
+      <c r="B64" s="10" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="64">
-      <c r="B64" s="12" t="s">
+      <c r="C64" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="C64" s="12" t="s">
+    </row>
+    <row r="65">
+      <c r="B65" s="10" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="65">
-      <c r="B65" s="12" t="s">
+      <c r="C65" s="10" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="B66" s="10" t="s">
         <v>191</v>
       </c>
-      <c r="C65" s="12" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="B66" s="12" t="s">
+      <c r="C66" s="10" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="B67" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="C66" s="12" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="B67" s="12" t="s">
+      <c r="C67" s="10" t="s">
         <v>193</v>
       </c>
-      <c r="C67" s="12" t="s">
+    </row>
+    <row r="68">
+      <c r="B68" s="10" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="68">
-      <c r="B68" s="12" t="s">
+      <c r="C68" s="10" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="B69" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="C68" s="12" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="B69" s="12" t="s">
+      <c r="C69" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="C69" s="12" t="s">
+    </row>
+    <row r="70">
+      <c r="B70" s="10" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="70">
-      <c r="B70" s="12" t="s">
+      <c r="C70" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="C70" s="12" t="s">
+    </row>
+    <row r="71">
+      <c r="B71" s="10" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="71">
-      <c r="B71" s="12" t="s">
+      <c r="C71" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="C71" s="12" t="s">
+    </row>
+    <row r="72">
+      <c r="B72" s="10" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="72">
-      <c r="B72" s="12" t="s">
+      <c r="C72" s="10" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="B73" s="10" t="s">
         <v>202</v>
       </c>
-      <c r="C72" s="12" t="s">
+      <c r="C73" s="10" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="73">
-      <c r="B73" s="12" t="s">
+    <row r="74">
+      <c r="B74" s="10" t="s">
         <v>204</v>
       </c>
-      <c r="C73" s="12" t="s">
+      <c r="C74" s="10" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="74">
-      <c r="B74" s="12" t="s">
+    <row r="75">
+      <c r="B75" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="C74" s="12" t="s">
+      <c r="C75" s="10" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="B76" s="10" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="75">
-      <c r="B75" s="12" t="s">
+      <c r="C76" s="10" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="B77" s="10" t="s">
         <v>208</v>
       </c>
-      <c r="C75" s="12" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="B76" s="12" t="s">
+      <c r="C77" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="C76" s="12" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="B77" s="12" t="s">
+    </row>
+    <row r="78">
+      <c r="B78" s="10" t="s">
         <v>210</v>
       </c>
-      <c r="C77" s="12" t="s">
+      <c r="C78" s="10" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="78">
-      <c r="B78" s="12" t="s">
+    <row r="79">
+      <c r="B79" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="C78" s="12" t="s">
+      <c r="C79" s="10" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="B80" s="10" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="79">
-      <c r="B79" s="12" t="s">
+      <c r="C80" s="10" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="B81" s="10" t="s">
         <v>214</v>
       </c>
-      <c r="C79" s="12" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="B80" s="12" t="s">
+      <c r="C81" s="10" t="s">
         <v>215</v>
       </c>
-      <c r="C80" s="12" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="B81" s="12" t="s">
+    </row>
+    <row r="82">
+      <c r="B82" s="10" t="s">
         <v>216</v>
       </c>
-      <c r="C81" s="12" t="s">
+      <c r="C82" s="10" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="B83" s="10" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="82">
-      <c r="B82" s="12" t="s">
+      <c r="C83" s="10" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="B84" s="10" t="s">
         <v>218</v>
       </c>
-      <c r="C82" s="12" t="s">
+      <c r="C84" s="10" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="B85" s="10" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="83">
-      <c r="B83" s="12" t="s">
+      <c r="C85" s="10" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="B86" s="10" t="s">
         <v>220</v>
       </c>
-      <c r="C83" s="12" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="B84" s="12" t="s">
+      <c r="C86" s="10" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="B87" s="10" t="s">
         <v>221</v>
       </c>
-      <c r="C84" s="12" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="B85" s="12" t="s">
+      <c r="C87" s="10" t="s">
         <v>222</v>
       </c>
-      <c r="C85" s="12" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="B86" s="12" t="s">
+    </row>
+    <row r="88">
+      <c r="B88" s="10" t="s">
         <v>223</v>
       </c>
-      <c r="C86" s="12" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="B87" s="12" t="s">
+      <c r="C88" s="10" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="B89" s="10" t="s">
         <v>224</v>
       </c>
-      <c r="C87" s="12" t="s">
+      <c r="C89" s="10" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="B90" s="10" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="88">
-      <c r="B88" s="12" t="s">
+      <c r="C90" s="10" t="s">
         <v>226</v>
       </c>
-      <c r="C88" s="12" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="B89" s="12" t="s">
+    </row>
+    <row r="91">
+      <c r="B91" s="10" t="s">
         <v>227</v>
       </c>
-      <c r="C89" s="12" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="B90" s="12" t="s">
+      <c r="C91" s="10" t="s">
         <v>228</v>
       </c>
-      <c r="C90" s="12" t="s">
+    </row>
+    <row r="92">
+      <c r="B92" s="10" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="91">
-      <c r="B91" s="12" t="s">
+      <c r="C92" s="10" t="s">
         <v>230</v>
       </c>
-      <c r="C91" s="12" t="s">
+    </row>
+    <row r="93">
+      <c r="B93" s="10" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="92">
-      <c r="B92" s="12" t="s">
+      <c r="C93" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="C92" s="12" t="s">
+    </row>
+    <row r="94">
+      <c r="B94" s="10" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="93">
-      <c r="B93" s="12" t="s">
+      <c r="C94" s="10" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="B95" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="C93" s="12" t="s">
+      <c r="C95" s="10" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="94">
-      <c r="B94" s="12" t="s">
+    <row r="96">
+      <c r="B96" s="10" t="s">
         <v>236</v>
       </c>
-      <c r="C94" s="12" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="B95" s="12" t="s">
+      <c r="C96" s="10" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="B97" s="10" t="s">
         <v>237</v>
       </c>
-      <c r="C95" s="12" t="s">
+      <c r="C97" s="10" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="96">
-      <c r="B96" s="12" t="s">
+    <row r="98">
+      <c r="B98" s="10" t="s">
         <v>239</v>
       </c>
-      <c r="C96" s="12" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="B97" s="12" t="s">
+      <c r="C98" s="10" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="B99" s="10" t="s">
         <v>240</v>
       </c>
-      <c r="C97" s="12" t="s">
+      <c r="C99" s="10" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="B100" s="10" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="98">
-      <c r="B98" s="12" t="s">
+      <c r="C100" s="10" t="s">
         <v>242</v>
       </c>
-      <c r="C98" s="12" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="B99" s="12" t="s">
+    </row>
+    <row r="101">
+      <c r="B101" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="C99" s="12" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="B100" s="12" t="s">
+      <c r="C101" s="10" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="B102" s="10" t="s">
         <v>244</v>
       </c>
-      <c r="C100" s="12" t="s">
+      <c r="C102" s="10" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="101">
-      <c r="B101" s="12" t="s">
+    <row r="103">
+      <c r="B103" s="10" t="s">
         <v>246</v>
       </c>
-      <c r="C101" s="12" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="B102" s="12" t="s">
+      <c r="C103" s="10" t="s">
         <v>247</v>
       </c>
-      <c r="C102" s="12" t="s">
+    </row>
+    <row r="104">
+      <c r="B104" s="10" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="103">
-      <c r="B103" s="12" t="s">
+      <c r="C104" s="10" t="s">
         <v>249</v>
       </c>
-      <c r="C103" s="12" t="s">
+    </row>
+    <row r="105">
+      <c r="B105" s="10" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="104">
-      <c r="B104" s="12" t="s">
+      <c r="C105" s="10" t="s">
         <v>251</v>
       </c>
-      <c r="C104" s="12" t="s">
+    </row>
+    <row r="106">
+      <c r="B106" s="10" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="105">
-      <c r="B105" s="12" t="s">
+      <c r="C106" s="10" t="s">
         <v>253</v>
       </c>
-      <c r="C105" s="12" t="s">
+    </row>
+    <row r="107">
+      <c r="B107" s="10" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="106">
-      <c r="B106" s="12" t="s">
+      <c r="C107" s="10" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="B108" s="10" t="s">
         <v>255</v>
       </c>
-      <c r="C106" s="12" t="s">
+      <c r="C108" s="10" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="B109" s="10" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="107">
-      <c r="B107" s="12" t="s">
+      <c r="C109" s="10" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="B110" s="10" t="s">
         <v>257</v>
       </c>
-      <c r="C107" s="12" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="B108" s="12" t="s">
+      <c r="C110" s="10" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="B111" s="10" t="s">
         <v>258</v>
       </c>
-      <c r="C108" s="12" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="B109" s="12" t="s">
+      <c r="C111" s="10" t="s">
         <v>259</v>
       </c>
-      <c r="C109" s="12" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="B110" s="12" t="s">
+    </row>
+    <row r="112">
+      <c r="B112" s="10" t="s">
         <v>260</v>
       </c>
-      <c r="C110" s="12" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="B111" s="12" t="s">
+      <c r="C112" s="10" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="B113" s="10" t="s">
         <v>261</v>
       </c>
-      <c r="C111" s="12" t="s">
+      <c r="C113" s="10" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="B114" s="10" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="112">
-      <c r="B112" s="12" t="s">
+      <c r="C114" s="10" t="s">
         <v>263</v>
       </c>
-      <c r="C112" s="12" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="B113" s="12" t="s">
+    </row>
+    <row r="115">
+      <c r="B115" s="10" t="s">
         <v>264</v>
       </c>
-      <c r="C113" s="12" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="B114" s="12" t="s">
+      <c r="C115" s="10" t="s">
         <v>265</v>
       </c>
-      <c r="C114" s="12" t="s">
+    </row>
+    <row r="116">
+      <c r="B116" s="10" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="115">
-      <c r="B115" s="12" t="s">
+      <c r="C116" s="10" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="B117" s="10" t="s">
         <v>267</v>
       </c>
-      <c r="C115" s="12" t="s">
+      <c r="C117" s="10" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="B118" s="10" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="116">
-      <c r="B116" s="12" t="s">
+      <c r="C118" s="10" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="B119" s="10" t="s">
         <v>269</v>
       </c>
-      <c r="C116" s="12" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="B117" s="12" t="s">
+      <c r="C119" s="10" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="B120" s="10" t="s">
         <v>270</v>
       </c>
-      <c r="C117" s="12" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="B118" s="12" t="s">
+      <c r="C120" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="C118" s="12" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="B119" s="12" t="s">
+    </row>
+    <row r="121">
+      <c r="B121" s="10" t="s">
         <v>272</v>
       </c>
-      <c r="C119" s="12" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="B120" s="12" t="s">
+      <c r="C121" s="10" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="B122" s="10" t="s">
         <v>273</v>
       </c>
-      <c r="C120" s="12" t="s">
+      <c r="C122" s="10" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="B123" s="10" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="121">
-      <c r="B121" s="12" t="s">
+      <c r="C123" s="10" t="s">
         <v>275</v>
       </c>
-      <c r="C121" s="12" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="B122" s="12" t="s">
+    </row>
+    <row r="124">
+      <c r="B124" s="10" t="s">
         <v>276</v>
       </c>
-      <c r="C122" s="12" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="B123" s="12" t="s">
+      <c r="C124" s="10" t="s">
         <v>277</v>
       </c>
-      <c r="C123" s="12" t="s">
+    </row>
+    <row r="125">
+      <c r="B125" s="10" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="124">
-      <c r="B124" s="12" t="s">
+      <c r="C125" s="10" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="B126" s="10" t="s">
         <v>279</v>
       </c>
-      <c r="C124" s="12" t="s">
+      <c r="C126" s="10" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="B127" s="10" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="125">
-      <c r="B125" s="12" t="s">
+      <c r="C127" s="10" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="B128" s="10" t="s">
         <v>281</v>
       </c>
-      <c r="C125" s="12" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="B126" s="12" t="s">
+      <c r="C128" s="10" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="B129" s="10" t="s">
         <v>282</v>
       </c>
-      <c r="C126" s="12" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="B127" s="12" t="s">
+      <c r="C129" s="10" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="B130" s="10" t="s">
         <v>283</v>
       </c>
-      <c r="C127" s="12" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="B128" s="12" t="s">
+      <c r="C130" s="10" t="s">
         <v>284</v>
-      </c>
-      <c r="C128" s="12" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="B129" s="12" t="s">
-        <v>285</v>
-      </c>
-      <c r="C129" s="12" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="B130" s="12" t="s">
-        <v>286</v>
-      </c>
-      <c r="C130" s="12" t="s">
-        <v>287</v>
       </c>
     </row>
   </sheetData>
